--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139A568-6732-4E47-BA28-F3001ED2D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FF248-9261-5C41-9339-2F4DAB101B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,16 +338,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,7 +697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -723,7 +725,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -734,7 +736,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -743,7 +745,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -752,7 +754,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -761,7 +763,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -770,16 +772,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -788,7 +790,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -814,14 +816,14 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -867,7 +869,7 @@
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
@@ -877,7 +879,7 @@
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -886,14 +888,14 @@
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -926,7 +928,7 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FF248-9261-5C41-9339-2F4DAB101B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D06CD-3A7C-F14C-9336-BD8D4A5103AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Keyboard shortcuts</t>
   </si>
   <si>
-    <t>JPackage capability</t>
-  </si>
-  <si>
     <t>0.1.x</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Use the QTransform data to come up with an approximation of the music notes</t>
+  </si>
+  <si>
+    <t>JPackage integration</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -777,182 +777,182 @@
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D06CD-3A7C-F14C-9336-BD8D4A5103AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63458AEA-E04B-394C-ADE9-10B474BBB429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Version Number</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>These are the options that you see if you hover at the top of the window</t>
@@ -698,7 +695,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -783,10 +780,10 @@
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -801,24 +798,24 @@
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -827,60 +824,60 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -890,55 +887,55 @@
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -946,13 +943,13 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63458AEA-E04B-394C-ADE9-10B474BBB429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E12F1-6BA6-A44B-ABF6-299B736C8039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Version Number</t>
   </si>
   <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
     <t>Done?</t>
   </si>
   <si>
@@ -64,13 +61,7 @@
     <t>Keyboard shortcuts</t>
   </si>
   <si>
-    <t>0.1.x</t>
-  </si>
-  <si>
     <t>Bugfixes</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
   </si>
   <si>
     <t>Yes</t>
@@ -133,9 +124,6 @@
     <t>Project searching / Project list</t>
   </si>
   <si>
-    <t>0.2.x</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -156,9 +144,6 @@
     </r>
   </si>
   <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
     <t>BPM Estimation</t>
   </si>
   <si>
@@ -189,12 +174,6 @@
     <t>Allow the adding of notes onto the spectrogram pane</t>
   </si>
   <si>
-    <t>0.3.x</t>
-  </si>
-  <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>Automatic music transcription</t>
   </si>
   <si>
@@ -202,6 +181,27 @@
   </si>
   <si>
     <t>JPackage integration</t>
+  </si>
+  <si>
+    <t>0.1.0-alpha</t>
+  </si>
+  <si>
+    <t>0.1.x-alpha</t>
+  </si>
+  <si>
+    <t>0.2.0-alpha</t>
+  </si>
+  <si>
+    <t>0.2.x-alpha</t>
+  </si>
+  <si>
+    <t>0.3.0-alpha</t>
+  </si>
+  <si>
+    <t>0.3.x-alpha</t>
+  </si>
+  <si>
+    <t>0.4.0-alpha</t>
   </si>
 </sst>
 </file>
@@ -694,9 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -712,244 +710,244 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E12F1-6BA6-A44B-ABF6-299B736C8039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D9D3F-09BC-6645-BED3-33EE6B769312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Version Number</t>
   </si>
@@ -694,7 +694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -815,7 +817,9 @@
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D9D3F-09BC-6645-BED3-33EE6B769312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4EBB4-4E14-154C-8F68-5F31DFC8A9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Version Number</t>
   </si>
@@ -112,9 +112,6 @@
     </r>
   </si>
   <si>
-    <t>Licence(s) window</t>
-  </si>
-  <si>
     <t>"Save File As" button</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>0.4.0-alpha</t>
+  </si>
+  <si>
+    <t>Licence window</t>
+  </si>
+  <si>
+    <t>Show link to AudiTranscribe website</t>
   </si>
 </sst>
 </file>
@@ -694,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -723,7 +726,7 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -780,7 +783,7 @@
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -788,7 +791,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -798,24 +801,27 @@
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
@@ -823,7 +829,7 @@
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
@@ -846,7 +852,7 @@
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -879,7 +885,7 @@
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
@@ -889,55 +895,55 @@
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
@@ -945,13 +951,13 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4EBB4-4E14-154C-8F68-5F31DFC8A9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0FEAF1-A23E-D642-B3D8-B3D6A84C42FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Version Number</t>
   </si>
@@ -201,10 +201,10 @@
     <t>0.4.0-alpha</t>
   </si>
   <si>
-    <t>Licence window</t>
-  </si>
-  <si>
-    <t>Show link to AudiTranscribe website</t>
+    <t>About window</t>
+  </si>
+  <si>
+    <t>Show the details about AudiTranscribe, incl. licence of AudiTranscribe and dependants' licences</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -806,7 +806,9 @@
       <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0FEAF1-A23E-D642-B3D8-B3D6A84C42FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B736D-4706-CA4E-8F36-805E2746A2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Version Number</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Use the first 2 rows of the keyboard</t>
-  </si>
-  <si>
-    <t>Toolbar options</t>
   </si>
   <si>
     <t>Settings page</t>
@@ -206,12 +203,32 @@
   <si>
     <t>Show the details about AudiTranscribe, incl. licence of AudiTranscribe and dependants' licences</t>
   </si>
+  <si>
+    <t>PTFU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">So that you can make a copy of the file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Pushed to 0.2.0-alpha]</t>
+    </r>
+  </si>
+  <si>
+    <t>Menu bar options</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +260,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -695,11 +718,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -715,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -726,7 +747,7 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -783,7 +804,7 @@
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -791,7 +812,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -801,10 +822,10 @@
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -813,17 +834,19 @@
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
@@ -831,10 +854,10 @@
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
@@ -844,133 +867,143 @@
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A13:A19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D13 D15:D1048576">
+  <conditionalFormatting sqref="D16:D1048576 D1:D14">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D1)))</formula>
     </cfRule>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B736D-4706-CA4E-8F36-805E2746A2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB24D4E-E9F7-444E-B47E-577929B66E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Version Number</t>
   </si>
@@ -720,7 +720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -817,7 +819,9 @@
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB24D4E-E9F7-444E-B47E-577929B66E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047482A3-5FDE-4249-BC02-D80F8D2BE8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Version Number</t>
   </si>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,7 +893,9 @@
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047482A3-5FDE-4249-BC02-D80F8D2BE8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5DC37C-2396-4741-BB53-319018798A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Version Number</t>
   </si>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -912,7 +912,9 @@
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5DC37C-2396-4741-BB53-319018798A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975989C-08DB-DC4D-8B4B-F8242BCC0925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Version Number</t>
   </si>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,7 +924,9 @@
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975989C-08DB-DC4D-8B4B-F8242BCC0925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B60BF8-6870-DA4F-89C7-5B4EAA40AF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Version Number</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>These are the options that you see if you hover at the top of the window</t>
   </si>
   <si>
     <t>To allow for customisation of default constants</t>
@@ -222,6 +219,15 @@
   </si>
   <si>
     <t>Menu bar options</t>
+  </si>
+  <si>
+    <t>Add keyboard remapping</t>
+  </si>
+  <si>
+    <t>So that users can change the keys on the keyboard that does a specific thing</t>
+  </si>
+  <si>
+    <t>These are the options that you see if you hover at the top of the window; also add "about" window in these menu bar options</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -373,11 +379,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -718,11 +760,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5AA1-A650-E143-A940-8006F2A9B810}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -738,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -749,7 +789,7 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -806,7 +846,7 @@
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -814,7 +854,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -826,10 +866,10 @@
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -838,60 +878,60 @@
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>9</v>
@@ -900,17 +940,17 @@
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>9</v>
@@ -919,10 +959,10 @@
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>9</v>
@@ -930,7 +970,7 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
@@ -940,88 +980,109 @@
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>40</v>
+      <c r="A27" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:D1048576 D1:D14">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="D16:D28 D1:D14 D30:D1048576">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="PTFU">
+      <formula>NOT(ISERROR(SEARCH("PTFU",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D29)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PTFU">
-      <formula>NOT(ISERROR(SEARCH("PTFU",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PTFU",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047482A3-5FDE-4249-BC02-D80F8D2BE8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62157D22-3A05-E340-BD76-8423EDE8B256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Version Number</t>
   </si>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,7 +866,9 @@
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
@@ -876,7 +878,9 @@
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>

--- a/Feature Plan.xlsx
+++ b/Feature Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/IdeaProjects/AudiTranscribe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62157D22-3A05-E340-BD76-8423EDE8B256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88392F1-B7B6-D948-B7EE-F9BD42A25ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15100" xr2:uid="{8A39A3C6-9572-E947-93B4-701CC8C42CF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Version Number</t>
   </si>
@@ -916,7 +916,9 @@
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
@@ -926,7 +928,9 @@
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
